--- a/tong_hop_sinh_vien_vang_hon_15.xlsx
+++ b/tong_hop_sinh_vien_vang_hon_15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,98 +669,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2100004740</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mai Hoàng</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Anh</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2003-03-27 00:00:00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HK 3 NH 2023-2024</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>010107381601</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2100007080</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Võ Nguyễn Nhật</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Huy</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2003-12-23 00:00:00</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>HK 3 NH 2023-2024</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>010107381601</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Thị giác máy tính (010107381601 - 21DCD1A)</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>30</v>
-      </c>
-      <c r="J7" t="n">
-        <v>30</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
